--- a/Tarea/DataTarea_Exogenas_Riesgo5.xlsx
+++ b/Tarea/DataTarea_Exogenas_Riesgo5.xlsx
@@ -1,48 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/gonzalo_bueno_bcrp_gob_pe/Documents/CUECOPolMon/Ignorar_Backup/Riesgo/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79BC4A1F-A95E-4A39-BABE-1A93036A039C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Uvar" sheetId="1" r:id="rId1"/>
-    <sheet name="UShock" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Uvar"/>
+    <sheet r:id="rId2" sheetId="2" name="UShock"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>res_Dps</t>
+    <t>res_EDy</t>
   </si>
   <si>
     <t>Dpae</t>
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>DY_eq</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>i</t>
@@ -54,29 +41,23 @@
     <t>res_g</t>
   </si>
   <si>
-    <t>res_i</t>
-  </si>
-  <si>
-    <t>DY_eq</t>
-  </si>
-  <si>
     <t>res_DY_eq</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>res_x</t>
   </si>
+  <si>
+    <t>res_i</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +67,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -100,11 +87,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -114,16 +101,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -132,7 +141,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -157,78 +166,75 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,10 +245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -280,71 +286,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,7 +378,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -395,11 +401,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -408,13 +414,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -424,7 +430,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -433,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -442,7 +448,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -450,10 +456,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -518,203 +524,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="11">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
         <v>45747</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>4.4875676601931875</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>0.37368092970796096</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>3.5740658868105957</v>
       </c>
-      <c r="E3" s="13">
-        <v>2.4430951174366471</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="E3" s="9">
+        <v>2.443095117436647</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
         <v>45838</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>3.498146564230074</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.44932078899883388</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3.5863252279424902</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="C4" s="8">
+        <v>0.4493207889988339</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.58632522794249</v>
+      </c>
+      <c r="E4" s="9">
         <v>2.375390183492327</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="F4" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3">
         <v>45930</v>
       </c>
-      <c r="B5" s="3">
-        <v>3.0005524745618741</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.47966750054633212</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="8">
+        <v>3.000552474561874</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.4796675005463321</v>
+      </c>
+      <c r="D5" s="9">
         <v>3.5984619756630654</v>
       </c>
-      <c r="E5" s="13">
-        <v>2.2680305634547002</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="E5" s="9">
+        <v>2.2680305634547</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3">
         <v>46022</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>3.034654816605586</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>0.49184260121918844</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>3.6104773559064354</v>
       </c>
-      <c r="E6" s="13">
-        <v>2.2194354933588212</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="E6" s="9">
+        <v>2.219435493358821</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
         <v>46112</v>
       </c>
-      <c r="B7" s="3">
-        <v>2.8088353026717501</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.24672725160913839</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="B7" s="8">
+        <v>2.80883530267175</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.2467272516091384</v>
+      </c>
+      <c r="D7" s="9">
         <v>3.8723725823473716</v>
       </c>
-      <c r="E7" s="13">
-        <v>2.1282657499735929</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="E7" s="9">
+        <v>2.128265749973593</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3">
         <v>46203</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>2.834969551106191</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0.24868697334558632</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>3.8841488565238986</v>
       </c>
-      <c r="E8" s="13">
-        <v>2.0933867433776281</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="E8" s="9">
+        <v>2.093386743377628</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3">
         <v>46295</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>2.853785520902214</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>0.24947321370624922</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>3.8958073679586596</v>
       </c>
-      <c r="E9" s="13">
-        <v>2.0138372489895269</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="E9" s="9">
+        <v>2.013837248989527</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="3">
         <v>46387</v>
       </c>
-      <c r="B10" s="3">
-        <v>2.8622113640225701</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="8">
+        <v>2.86221136402257</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.2497886533389472</v>
       </c>
-      <c r="D10" s="13">
-        <v>3.9073492942790731</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="9">
+        <v>3.907349294279073</v>
+      </c>
+      <c r="E10" s="9">
         <v>1.988802917343927</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -722,93 +728,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
         <v>45747</v>
       </c>
-      <c r="B3" s="15">
-        <v>-0.92817505781712928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="B3" s="4">
+        <v>-0.9281750578171293</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>45838</v>
       </c>
-      <c r="B4" s="15">
-        <v>-0.25259137034954771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="B4" s="4">
+        <v>-0.2525913703495477</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>45930</v>
       </c>
-      <c r="B5" s="15">
-        <v>-2.4281647982686672E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="B5" s="4">
+        <v>-0.02428164798268667</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>46022</v>
       </c>
-      <c r="B6" s="15">
-        <v>-0.23860532011764959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="B6" s="4">
+        <v>-0.2386053201176496</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>46112</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="4">
         <v>0.1072110049982449</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>46203</v>
       </c>
-      <c r="B8" s="15">
-        <v>-0.13629700274016779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="B8" s="4">
+        <v>-0.1362970027401678</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
         <v>46295</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="4">
         <v>-0.1181962367254232</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>46387</v>
       </c>
-      <c r="B10" s="15">
-        <v>-9.9627275576619392E-2</v>
+      <c r="B10" s="4">
+        <v>-0.09962727557661939</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A95F695341A2644683A40A4AE0B8881B" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e2131995a243c87950f34ace40f824b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d" xmlns:ns3="3af99e43-9d1b-47f0-a012-42c2c9480d00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f83123875d1c33fca838d74f50e10f7e" ns2:_="" ns3:_="">
+    <xsd:import namespace="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d"/>
+    <xsd:import namespace="3af99e43-9d1b-47f0-a012-42c2c9480d00"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8fcd6294-0138-4824-9930-013f35034f52" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3af99e43-9d1b-47f0-a012-42c2c9480d00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8a0bee93-f73f-4041-9acd-adad611ec4da}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3af99e43-9d1b-47f0-a012-42c2c9480d00">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3af99e43-9d1b-47f0-a012-42c2c9480d00" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e317b0e9-28fd-415b-9d0c-f3a0f6f6407d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077B7187-B955-4089-91DA-411B02CF146E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22060321-B468-44E7-9715-E2FFF0F31A62}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B2879A-330E-4D0B-83FC-CAE62BBBF256}"/>
 </file>